--- a/src/main/kotlin/t3/SortingData.xlsx
+++ b/src/main/kotlin/t3/SortingData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antti\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antti\IdeaProjects\AlgorithmsAndDatastructures\src\main\kotlin\t3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E478857-A211-4D74-BB08-D5DBB71666AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A9A0A3-27BD-49A1-A36B-2D36EBA51CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="0" windowWidth="38640" windowHeight="21120" xr2:uid="{25679CB3-F26C-4C6D-9C2B-585C52ED68BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25679CB3-F26C-4C6D-9C2B-585C52ED68BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Merge sort</t>
   </si>
@@ -65,95 +65,17 @@
     <t>10000 lukua (1-999)</t>
   </si>
   <si>
-    <t>228μs</t>
-  </si>
-  <si>
-    <t>224μs</t>
-  </si>
-  <si>
-    <t>2084μs</t>
-  </si>
-  <si>
-    <t>349μs</t>
-  </si>
-  <si>
-    <t>59255μs</t>
-  </si>
-  <si>
-    <t>5370μs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6939μs </t>
-  </si>
-  <si>
-    <t>36921μs</t>
-  </si>
-  <si>
-    <t>73452μs</t>
-  </si>
-  <si>
-    <t>41109μs</t>
-  </si>
-  <si>
     <t>Kaikki sorttaukset iteroitiin 100 kertaa</t>
   </si>
   <si>
-    <t>970μs</t>
-  </si>
-  <si>
-    <t>323μs</t>
-  </si>
-  <si>
-    <t>2957μs</t>
-  </si>
-  <si>
-    <t>5423μs</t>
-  </si>
-  <si>
-    <t>3471μs</t>
-  </si>
-  <si>
-    <t>10466μs</t>
-  </si>
-  <si>
-    <t>15047μs</t>
-  </si>
-  <si>
-    <t>11833μs</t>
-  </si>
-  <si>
-    <t>234μs</t>
-  </si>
-  <si>
-    <t>707μs</t>
-  </si>
-  <si>
-    <t>308μs</t>
-  </si>
-  <si>
-    <t>2997μs</t>
-  </si>
-  <si>
-    <t>6392μs</t>
-  </si>
-  <si>
-    <t>3529μs</t>
-  </si>
-  <si>
-    <t>10475μs</t>
-  </si>
-  <si>
-    <t>15363μs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12013μs </t>
+    <t>(μs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +113,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +137,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,19 +175,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -270,6 +209,1059 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0692038495188101E-2"/>
+          <c:y val="7.282806683503372E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.85026975794692328"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Select sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$5,Sheet1!$A$9,Sheet1!$A$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 lukua (1-999)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$6,Sheet1!$D$10,Sheet1!$D$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-10FC-43FC-82D1-F878ACEE5A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$5,Sheet1!$A$9,Sheet1!$A$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 lukua (1-999)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$7,Sheet1!$D$11,Sheet1!$D$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3471</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-10FC-43FC-82D1-F878ACEE5A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$5,Sheet1!$A$9,Sheet1!$A$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000 lukua (1-999)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000 lukua (1-999)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$8,Sheet1!$D$12,Sheet1!$D$16)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-10FC-43FC-82D1-F878ACEE5A1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="382764656"/>
+        <c:axId val="382772144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="382764656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382772144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="382772144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382764656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2771</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>21474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1357745</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C1A1CC6-1094-084D-3D8D-D80F0CFFA336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,42 +1561,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EA0A07-5013-4C3A-BA3B-7F64DCD51A5C}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,161 +1607,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" s="1">
+        <v>2084</v>
+      </c>
+      <c r="C6" s="1">
+        <v>224</v>
+      </c>
+      <c r="D6" s="1">
+        <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+      <c r="B7" s="1">
+        <v>970</v>
+      </c>
+      <c r="C7" s="1">
+        <v>228</v>
+      </c>
+      <c r="D7" s="1">
+        <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
+      <c r="B8" s="1">
+        <v>707</v>
+      </c>
+      <c r="C8" s="1">
+        <v>234</v>
+      </c>
+      <c r="D8" s="1">
+        <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="1">
+        <v>59255</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5370</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6939</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" s="1">
+        <v>5423</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2957</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3471</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
+      <c r="B12" s="1">
+        <v>6392</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3529</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
+      <c r="B14" s="1">
+        <v>73452</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36921</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41109</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
+      <c r="B15" s="1">
+        <v>15047</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10466</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11833</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="1">
+        <v>15363</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10475</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>